--- a/tools/excel/nist/sp-800-53/mapping-nist-sp-800-53-rev5-to-iso27001-2022.xlsx
+++ b/tools/excel/nist/sp-800-53/mapping-nist-sp-800-53-rev5-to-iso27001-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\nist\sp-800-53\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B996AD4A-32D7-4822-A063-41E5D0B15496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EDD51B-13E3-48D7-8064-F1FCD4E7A610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4350" yWindow="-12090" windowWidth="20850" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20785,6 +20785,7 @@
   <si>
     <t>NIST
 Contact: sec-cert@nist.gov
+Source:
 https://csrc.nist.gov/projects/olir/informative-reference-catalog/details?referenceId=155#/
 https://csrc.nist.gov/csrc/media/Projects/olir/documents/submissions/sp800-53r5-to-iso-27001-mapping-2022-OLIR-2023-10-12-UPDATED.xlsx</t>
   </si>
@@ -21197,7 +21198,7 @@
         <v>6620</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -21329,7 +21330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E643"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
